--- a/FEV/Requirments/UseCase_DeratingControl.xlsx
+++ b/FEV/Requirments/UseCase_DeratingControl.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Desktop\FEV\Requirments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -228,6 +233,9 @@
   </si>
   <si>
     <t>Default Value</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -295,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +772,7 @@
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -824,6 +832,11 @@
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +849,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,5 +1114,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>